--- a/data/pca/factorExposure/factorExposure_2012-10-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001679849757830714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001936746059475751</v>
+      </c>
+      <c r="C2">
+        <v>0.02850069526237084</v>
+      </c>
+      <c r="D2">
+        <v>0.006492458659587036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006138269628507525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006901347379366768</v>
+      </c>
+      <c r="C4">
+        <v>0.08259384012137479</v>
+      </c>
+      <c r="D4">
+        <v>0.07251614772953283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002410627947801084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01381644595286291</v>
+      </c>
+      <c r="C6">
+        <v>0.1134865086723991</v>
+      </c>
+      <c r="D6">
+        <v>0.02395008714443203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0004657048019509435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004969919006576581</v>
+      </c>
+      <c r="C7">
+        <v>0.05812628811903345</v>
+      </c>
+      <c r="D7">
+        <v>0.03311892320297273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0007357078018827846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005748097948613203</v>
+      </c>
+      <c r="C8">
+        <v>0.03481609182397393</v>
+      </c>
+      <c r="D8">
+        <v>0.04094035188958901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002567878566247902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00512614118336555</v>
+      </c>
+      <c r="C9">
+        <v>0.07007819715120299</v>
+      </c>
+      <c r="D9">
+        <v>0.07673573105946513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002341155318072907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005806532408196019</v>
+      </c>
+      <c r="C10">
+        <v>0.0562519309680489</v>
+      </c>
+      <c r="D10">
+        <v>-0.1953734263134434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003080539408101831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005518123032589947</v>
+      </c>
+      <c r="C11">
+        <v>0.07924496374409053</v>
+      </c>
+      <c r="D11">
+        <v>0.06437092874377577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001511495627752678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.00405067795907672</v>
+      </c>
+      <c r="C12">
+        <v>0.06438475244843068</v>
+      </c>
+      <c r="D12">
+        <v>0.05217297224890236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0030586498506449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008348527752234072</v>
+      </c>
+      <c r="C13">
+        <v>0.06696936603992369</v>
+      </c>
+      <c r="D13">
+        <v>0.0635126005311569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001737447507478355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006931936246710492</v>
+      </c>
+      <c r="C14">
+        <v>0.04234308014949806</v>
+      </c>
+      <c r="D14">
+        <v>0.01011914581688887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0002871784932530574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005754542304683379</v>
+      </c>
+      <c r="C15">
+        <v>0.04038540567433411</v>
+      </c>
+      <c r="D15">
+        <v>0.02977036518287406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007249390513435355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004937833978839312</v>
+      </c>
+      <c r="C16">
+        <v>0.06409907921637906</v>
+      </c>
+      <c r="D16">
+        <v>0.05667199806162233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0006789435265044958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008836535827692692</v>
+      </c>
+      <c r="C20">
+        <v>0.0634690758409219</v>
+      </c>
+      <c r="D20">
+        <v>0.04976140687460589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006187278537005199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009528370605139431</v>
+      </c>
+      <c r="C21">
+        <v>0.01946748679212504</v>
+      </c>
+      <c r="D21">
+        <v>0.0429365881207292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02259711880732716</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006536158849828199</v>
+      </c>
+      <c r="C22">
+        <v>0.08717741967715531</v>
+      </c>
+      <c r="D22">
+        <v>0.1226687015183747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02238453650640121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006346982735148152</v>
+      </c>
+      <c r="C23">
+        <v>0.08769515118962477</v>
+      </c>
+      <c r="D23">
+        <v>0.1234864600499413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002442741932001855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005500011611742936</v>
+      </c>
+      <c r="C24">
+        <v>0.0757840293286703</v>
+      </c>
+      <c r="D24">
+        <v>0.06831470548267976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004238931961368946</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003094762066523051</v>
+      </c>
+      <c r="C25">
+        <v>0.07809323608669254</v>
+      </c>
+      <c r="D25">
+        <v>0.06657163545515313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003381003158347095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003630084579592824</v>
+      </c>
+      <c r="C26">
+        <v>0.03852201322954165</v>
+      </c>
+      <c r="D26">
+        <v>0.02577320351072809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005925034933684428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001186457147482095</v>
+      </c>
+      <c r="C28">
+        <v>0.1044937662719132</v>
+      </c>
+      <c r="D28">
+        <v>-0.3208011100108066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009420501834335297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002657544421714078</v>
+      </c>
+      <c r="C29">
+        <v>0.04827480225237953</v>
+      </c>
+      <c r="D29">
+        <v>0.009488923271642604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005500128900652156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00963181109130949</v>
+      </c>
+      <c r="C30">
+        <v>0.141705749119908</v>
+      </c>
+      <c r="D30">
+        <v>0.1093165744808696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001156037040077591</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006211045297576866</v>
+      </c>
+      <c r="C31">
+        <v>0.0436014079863034</v>
+      </c>
+      <c r="D31">
+        <v>0.03178403215131556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001867017550152636</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00349860397938592</v>
+      </c>
+      <c r="C32">
+        <v>0.03964944653767423</v>
+      </c>
+      <c r="D32">
+        <v>0.02676632389053905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001579412705039189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008984056211772541</v>
+      </c>
+      <c r="C33">
+        <v>0.08792594461465356</v>
+      </c>
+      <c r="D33">
+        <v>0.06584755287783872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003501758456600626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004107676486563151</v>
+      </c>
+      <c r="C34">
+        <v>0.05761301559841978</v>
+      </c>
+      <c r="D34">
+        <v>0.05880931492335494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007429314410611658</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005244336313609325</v>
+      </c>
+      <c r="C35">
+        <v>0.04058145501707819</v>
+      </c>
+      <c r="D35">
+        <v>0.02074064232421828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005375455144866301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001499318989691366</v>
+      </c>
+      <c r="C36">
+        <v>0.02427616425652319</v>
+      </c>
+      <c r="D36">
+        <v>0.02532570405531491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0001188136819444817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009264613171050175</v>
+      </c>
+      <c r="C38">
+        <v>0.03803624365895093</v>
+      </c>
+      <c r="D38">
+        <v>0.01341131368386721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01332028923999816</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001457365464979216</v>
+      </c>
+      <c r="C39">
+        <v>0.1137131744853906</v>
+      </c>
+      <c r="D39">
+        <v>0.07809064564178522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00823819512326133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003528171828343662</v>
+      </c>
+      <c r="C40">
+        <v>0.09021615290335315</v>
+      </c>
+      <c r="D40">
+        <v>0.01724994194858237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007907882786589104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007147242236787516</v>
+      </c>
+      <c r="C41">
+        <v>0.03874474274010021</v>
+      </c>
+      <c r="D41">
+        <v>0.0388126941906871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002583812614071573</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003856009105183188</v>
+      </c>
+      <c r="C43">
+        <v>0.053229251094257</v>
+      </c>
+      <c r="D43">
+        <v>0.02748688777111269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01358388352244106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002828134598722997</v>
+      </c>
+      <c r="C44">
+        <v>0.1044041342403081</v>
+      </c>
+      <c r="D44">
+        <v>0.07053940415707169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008545138355696031</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001680248410372741</v>
+      </c>
+      <c r="C46">
+        <v>0.03252114812627142</v>
+      </c>
+      <c r="D46">
+        <v>0.03421990410479959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001472878394324245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002045887401960024</v>
+      </c>
+      <c r="C47">
+        <v>0.03487894959432109</v>
+      </c>
+      <c r="D47">
+        <v>0.02253536658025593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003133116302468342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006603108773391482</v>
+      </c>
+      <c r="C48">
+        <v>0.03016272092227191</v>
+      </c>
+      <c r="D48">
+        <v>0.0367653426426009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.006992701921530638</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01727386296720096</v>
+      </c>
+      <c r="C49">
+        <v>0.1895978049094011</v>
+      </c>
+      <c r="D49">
+        <v>0.006311782731320685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006299980044644935</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003458827177033325</v>
+      </c>
+      <c r="C50">
+        <v>0.04247286242739644</v>
+      </c>
+      <c r="D50">
+        <v>0.03923230758913495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-1.112466342456496e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004701018512522536</v>
+      </c>
+      <c r="C51">
+        <v>0.02595639981867097</v>
+      </c>
+      <c r="D51">
+        <v>0.02118533587592467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002386483125926687</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02118402062250359</v>
+      </c>
+      <c r="C53">
+        <v>0.1714557797922133</v>
+      </c>
+      <c r="D53">
+        <v>0.02254869699539764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002212516634428524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008883891533500941</v>
+      </c>
+      <c r="C54">
+        <v>0.05371479741965269</v>
+      </c>
+      <c r="D54">
+        <v>0.04669656329225374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003221695286660414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009467829303862986</v>
+      </c>
+      <c r="C55">
+        <v>0.1075012670703989</v>
+      </c>
+      <c r="D55">
+        <v>0.04110711012285406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004488430424443092</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0201757207983075</v>
+      </c>
+      <c r="C56">
+        <v>0.1759469919890329</v>
+      </c>
+      <c r="D56">
+        <v>0.01577648085537116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00331049949691634</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01907720346117702</v>
+      </c>
+      <c r="C58">
+        <v>0.1044078719696156</v>
+      </c>
+      <c r="D58">
+        <v>0.07305051909219901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.005900168108994385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01067878197406617</v>
+      </c>
+      <c r="C59">
+        <v>0.1689671016071447</v>
+      </c>
+      <c r="D59">
+        <v>-0.3420974942609466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.001528912602453189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02485028857193857</v>
+      </c>
+      <c r="C60">
+        <v>0.2255252069485228</v>
+      </c>
+      <c r="D60">
+        <v>0.02013999373640974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01211841221694504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001847132814275857</v>
+      </c>
+      <c r="C61">
+        <v>0.09458714370845116</v>
+      </c>
+      <c r="D61">
+        <v>0.05951567042730939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1547536553235114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1490758782304134</v>
+      </c>
+      <c r="C62">
+        <v>0.09643047978787687</v>
+      </c>
+      <c r="D62">
+        <v>0.02569847824016928</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008168409694596583</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006477157849343258</v>
+      </c>
+      <c r="C63">
+        <v>0.05340516628372195</v>
+      </c>
+      <c r="D63">
+        <v>0.03247826964304419</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002180442291748179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01579921879812039</v>
+      </c>
+      <c r="C64">
+        <v>0.1048728202681268</v>
+      </c>
+      <c r="D64">
+        <v>0.056993409409395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003532989831148501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0178222733093351</v>
+      </c>
+      <c r="C65">
+        <v>0.1220120670614223</v>
+      </c>
+      <c r="D65">
+        <v>0.02449158726624807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003676696685688472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01336050645082423</v>
+      </c>
+      <c r="C66">
+        <v>0.1615884451196238</v>
+      </c>
+      <c r="D66">
+        <v>0.1095863603317223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002519614545532137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0154560699239755</v>
+      </c>
+      <c r="C67">
+        <v>0.06989252268090826</v>
+      </c>
+      <c r="D67">
+        <v>0.02583867284586099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005154249048588115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001288651240877793</v>
+      </c>
+      <c r="C68">
+        <v>0.08720992659061205</v>
+      </c>
+      <c r="D68">
+        <v>-0.2568455322843466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001109477448397493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006404162663147013</v>
+      </c>
+      <c r="C69">
+        <v>0.05259133587991679</v>
+      </c>
+      <c r="D69">
+        <v>0.0374981935007214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0007896346686916037</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002035715956528118</v>
+      </c>
+      <c r="C70">
+        <v>0.006046624682776999</v>
+      </c>
+      <c r="D70">
+        <v>0.0005503389219332903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0004872067737631385</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006133338148105768</v>
+      </c>
+      <c r="C71">
+        <v>0.09206715406537189</v>
+      </c>
+      <c r="D71">
+        <v>-0.3003481585555326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.0035207710591325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01633265097056185</v>
+      </c>
+      <c r="C72">
+        <v>0.1562734359946893</v>
+      </c>
+      <c r="D72">
+        <v>0.01289516849689184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.004923839512091965</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03167351449523877</v>
+      </c>
+      <c r="C73">
+        <v>0.2825831216079214</v>
+      </c>
+      <c r="D73">
+        <v>0.05629813013384262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005303271801164443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002202927865598139</v>
+      </c>
+      <c r="C74">
+        <v>0.102061797870917</v>
+      </c>
+      <c r="D74">
+        <v>0.03774527562345676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003355403005685617</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01084324725670279</v>
+      </c>
+      <c r="C75">
+        <v>0.1223629911416578</v>
+      </c>
+      <c r="D75">
+        <v>0.02367655903615907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008712256208041547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02207377564799994</v>
+      </c>
+      <c r="C76">
+        <v>0.1469914176353398</v>
+      </c>
+      <c r="D76">
+        <v>0.05860941153588608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0005099488698763337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02167116682374876</v>
+      </c>
+      <c r="C77">
+        <v>0.1129464688878677</v>
+      </c>
+      <c r="D77">
+        <v>0.05099050664662442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001495556151610101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01506199546148686</v>
+      </c>
+      <c r="C78">
+        <v>0.09682919272608304</v>
+      </c>
+      <c r="D78">
+        <v>0.07801801506538759</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0225404192454466</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0384534688235235</v>
+      </c>
+      <c r="C79">
+        <v>0.1566091788828107</v>
+      </c>
+      <c r="D79">
+        <v>0.03184597306733279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00680845387485525</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01005883549834421</v>
+      </c>
+      <c r="C80">
+        <v>0.03775665991963453</v>
+      </c>
+      <c r="D80">
+        <v>0.03180482255442166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009223872904723185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01566184088253495</v>
+      </c>
+      <c r="C81">
+        <v>0.1297519100073216</v>
+      </c>
+      <c r="D81">
+        <v>0.03841532015705984</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005125915007715415</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01970084731509902</v>
+      </c>
+      <c r="C82">
+        <v>0.1382237918402343</v>
+      </c>
+      <c r="D82">
+        <v>0.04002016376753394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005962333378964601</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01045653359429241</v>
+      </c>
+      <c r="C83">
+        <v>0.05975297740911237</v>
+      </c>
+      <c r="D83">
+        <v>0.0497666127559762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01110158953826124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01187228475833783</v>
+      </c>
+      <c r="C84">
+        <v>0.0381023349687387</v>
+      </c>
+      <c r="D84">
+        <v>-0.002426991851962277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01437524738872398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02917632475759045</v>
+      </c>
+      <c r="C85">
+        <v>0.1246367010981414</v>
+      </c>
+      <c r="D85">
+        <v>0.04008728227024462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002365995578496439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004628993307125989</v>
+      </c>
+      <c r="C86">
+        <v>0.05062535954050347</v>
+      </c>
+      <c r="D86">
+        <v>0.02750259754101908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002388102047257079</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01067382472273125</v>
+      </c>
+      <c r="C87">
+        <v>0.1272817886939906</v>
+      </c>
+      <c r="D87">
+        <v>0.07608562954697806</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01086050904674563</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003171054708579882</v>
+      </c>
+      <c r="C88">
+        <v>0.06329987075941539</v>
+      </c>
+      <c r="D88">
+        <v>0.02611326326217074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.010683724151066</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001392147958256275</v>
+      </c>
+      <c r="C89">
+        <v>0.1396537803092585</v>
+      </c>
+      <c r="D89">
+        <v>-0.3184843429383138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003044412132230112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007036140671180939</v>
+      </c>
+      <c r="C90">
+        <v>0.1209905805205139</v>
+      </c>
+      <c r="D90">
+        <v>-0.3137763981651911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006250969336458348</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01029951490883672</v>
+      </c>
+      <c r="C91">
+        <v>0.09944994103201839</v>
+      </c>
+      <c r="D91">
+        <v>0.02468825387477386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008318210644908104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.000889291251271015</v>
+      </c>
+      <c r="C92">
+        <v>0.1344981087474163</v>
+      </c>
+      <c r="D92">
+        <v>-0.3219633700336182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001961207107509354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004905669134997449</v>
+      </c>
+      <c r="C93">
+        <v>0.105859794223905</v>
+      </c>
+      <c r="D93">
+        <v>-0.299416255152632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003606763370453447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02148373452031197</v>
+      </c>
+      <c r="C94">
+        <v>0.1427604877233093</v>
+      </c>
+      <c r="D94">
+        <v>0.0521676045323173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001601822877637479</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0164659029342804</v>
+      </c>
+      <c r="C95">
+        <v>0.1217771860022902</v>
+      </c>
+      <c r="D95">
+        <v>0.06558063424355549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.006890122786615708</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03709138143680085</v>
+      </c>
+      <c r="C97">
+        <v>0.2251178730631459</v>
+      </c>
+      <c r="D97">
+        <v>0.001269765135119198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004569418467426736</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0376356272560231</v>
+      </c>
+      <c r="C98">
+        <v>0.2558423207683328</v>
+      </c>
+      <c r="D98">
+        <v>0.03605233949603139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9861518806076474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813841603715768</v>
+      </c>
+      <c r="C99">
+        <v>-0.119561288004289</v>
+      </c>
+      <c r="D99">
+        <v>-0.02316790575593227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008700943790124884</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002699121025408374</v>
+      </c>
+      <c r="C101">
+        <v>0.04840499826168704</v>
+      </c>
+      <c r="D101">
+        <v>0.009879058559063403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
